--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Training Loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Training Accuracy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Loss</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Accuracy</t>
         </is>
       </c>
     </row>
@@ -462,7 +477,376 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>0.5301024368454218</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.8266399082568807</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5358268978611155</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8257339449541284</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 10, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3608020364368986</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8993577981651376</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4000108710774806</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8826146788990825</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>{'max_iter': 50}</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5481758444962731</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8207454128440367</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5552750774351554</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8169724770642202</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>{'max_iter': 100}</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5301024368454218</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8266399082568807</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5358268978611155</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8257339449541284</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>{'max_iter': 150}</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5231447195150803</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8291169724770642</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5307990126028299</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8271100917431192</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>{'max_iter': 200}</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5195971784347435</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8311467889908257</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5268772364325113</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8293577981651377</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5171373523834675</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8320412844036698</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5242005835263738</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8306422018348624</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>{'max_depth': 10}</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4095118699973523</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8739908256880734</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7588891024514457</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8468348623853211</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>{'max_depth': 15}</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1955722185109577</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9489449541284404</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.062058458807533</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8765596330275229</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>{'max_depth': 25}</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0745767207865972</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9836697247706422</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.304121524564613</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8820183486238532</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0499975449984141</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9898967889908257</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.632252558670426</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8822935779816514</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 10, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3608020364368986</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8993577981651376</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4000108710774806</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8826146788990825</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 15, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.163080736182862</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9591284403669724</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.272710428932605</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9163302752293578</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 20, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1042070731341987</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9805389908256881</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2395306024642506</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9244954128440367</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>{'hidden_layers': [128, 64, 32], 'dropout_rate': 0.3, 'learning_rate': 0.001, 'epochs': 20, 'batch_size': 64}</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-5091619766272</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-5548334907392</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>{'hidden_layers': [32], 'dropout_rate': 0.3, 'learning_rate': 0.01, 'epochs': 20, 'batch_size': 64}</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-65403480</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1098050475120544</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-68379816</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.122889906167984</v>
       </c>
     </row>
   </sheetData>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,6 +849,54 @@
         <v>0.122889906167984</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>{'time_steps': 9, 'lstm_units': 64, 'epochs': 10, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-4171.1572265625</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1250573396682739</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-4395.74462890625</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>{'time_steps': 9, 'lstm_units': 64, 'epochs': 10, 'batch_size': 90}</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-1522.377319335938</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1600.733764648438</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,6 +897,46 @@
         <v>0.125</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'C': 1.0, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>0.9206880733944954</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0.9070642201834862</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>{'kernel': 'linear', 'C': 1.0, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>0.8527981651376146</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,6 +937,246 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5176722741917741</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8319036697247706</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5248288243256471</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8303669724770643</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5317424053003006</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8224197247706422</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.541319239160884</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8209174311926606</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5728205725102818</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8066743119266055</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.572875006231814</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8055963302752294</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5566976305408307</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8110435779816514</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5632993811267115</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8090366972477064</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5600882025286689</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8109977064220183</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5750129894876274</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.8027064220183486</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 20, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1066650713881245</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9826032110091744</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2537971464855003</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9205504587155964</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 20, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.110370091800347</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.976788990825688</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2468014919235355</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9195412844036698</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.04713253137871162</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9901032110091743</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.661693183723407</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8811926605504588</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.04763624297123509</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9903325688073394</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.689771935521942</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8801834862385322</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.06113287100754804</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9875802752293578</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.320912323164694</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.8858715596330275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,6 +1177,30 @@
         <v>0.8858715596330275</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5049817553761154</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8309747706422018</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5143054544583496</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.825045871559633</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1201,6 +1201,30 @@
         <v>0.825045871559633</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>{'random_state': 42, 'optimize': True, 'n_trials': 5}</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.4848541977967454</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8392316513761467</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4988093256561148</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.8347706422018348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1225,6 +1225,30 @@
         <v>0.8347706422018348</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>{'random_state': 42, 'optimize': True, 'n_trials': 5}</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.4848541977967454</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8392316513761467</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.4988093256561148</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8347706422018348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1201,54 +1201,6 @@
         <v>0.825045871559633</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>LogisticRegression</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>{'random_state': 42, 'optimize': True, 'n_trials': 5}</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0.4848541977967454</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.8392316513761467</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.4988093256561148</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.8347706422018348</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>LogisticRegression</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>{'random_state': 42, 'optimize': True, 'n_trials': 5}</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0.4848541977967454</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.8392316513761467</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.4988093256561148</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.8347706422018348</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1201,6 +1201,30 @@
         <v>0.825045871559633</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5011377861893516</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8325917431192661</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.5094879356504962</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.8287155963302753</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1225,6 +1225,78 @@
         <v>0.8287155963302753</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5011377861893516</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8325917431192661</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5094879356504962</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8287155963302753</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5011377861893516</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8325917431192661</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5094879356504962</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8287155963302753</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05961969743960245</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9872935779816514</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.443732803030968</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.8844495412844037</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,6 +1297,30 @@
         <v>0.8844495412844037</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5396204590797424</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8227047324180603</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5393971800804138</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8224163055419922</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1321,6 +1321,30 @@
         <v>0.8224163055419922</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5392068028450012</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.822476327419281</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.538648784160614</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8218565583229065</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1345,6 +1345,198 @@
         <v>0.8218565583229065</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5397221446037292</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8218031525611877</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5395736694335938</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.8220245242118835</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>{'hidden_layers': [32], 'dropout_rate': 0.3, 'learning_rate': 0.01, 'epochs': 20, 'batch_size': 64, 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4079259037971497</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8522424101829529</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.3547864258289337</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8685131072998047</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>{'hidden_layers': [32], 'dropout_rate': 0.3, 'learning_rate': 0.01, 'epochs': 20, 'batch_size': 64, 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.4055112302303314</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8511757850646973</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3556340336799622</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8694465160369873</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>{'time_steps': 8, 'lstm_units': 64, 'epochs': 10, 'batch_size': 90, 'learning_rate': 0.001, 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.2662752270698547</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9027020931243896</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.2909113466739655</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8963072299957275</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>{'hidden_layers': [32], 'dropout_rate': 0.3, 'learning_rate': 0.01, 'epochs': 20, 'batch_size': 64, 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.4043055474758148</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8534204959869385</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.3485387563705444</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.8739444017410278</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>{'time_steps': 8, 'lstm_units': 64, 'epochs': 10, 'batch_size': 90, 'learning_rate': 0.001, 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.2613523900508881</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9052728414535522</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.2875173687934875</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8960378170013428</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>{'time_steps': 8, 'hidden_size': 128, 'num_layers': 3, 'dropout_rate': 0.4, 'epochs': 10, 'batch_size': 90, 'learning_rate': 0.0005, 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.3039801716804504</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8872016668319702</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.3051522970199585</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8897278904914856</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>{'time_steps': 8, 'lstm_units': 64, 'epochs': 10, 'batch_size': 90, 'learning_rate': 0.001, 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.2628472447395325</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9046638011932373</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.2815037965774536</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8970574736595154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,31 @@
           <t>Validation Accuracy</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Filter Parameters</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Feature Parameters</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Scaler Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Balancer Type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,6 +513,11 @@
       <c r="F2" t="n">
         <v>0.8257339449541284</v>
       </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,6 +542,11 @@
       <c r="F3" t="n">
         <v>0.8826146788990825</v>
       </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -536,6 +571,11 @@
       <c r="F4" t="n">
         <v>0.8169724770642202</v>
       </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -560,6 +600,11 @@
       <c r="F5" t="n">
         <v>0.8257339449541284</v>
       </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,6 +629,11 @@
       <c r="F6" t="n">
         <v>0.8271100917431192</v>
       </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -608,6 +658,11 @@
       <c r="F7" t="n">
         <v>0.8293577981651377</v>
       </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -632,6 +687,11 @@
       <c r="F8" t="n">
         <v>0.8306422018348624</v>
       </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -656,6 +716,11 @@
       <c r="F9" t="n">
         <v>0.8468348623853211</v>
       </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -680,6 +745,11 @@
       <c r="F10" t="n">
         <v>0.8765596330275229</v>
       </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -704,6 +774,11 @@
       <c r="F11" t="n">
         <v>0.8820183486238532</v>
       </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -728,6 +803,11 @@
       <c r="F12" t="n">
         <v>0.8822935779816514</v>
       </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -752,6 +832,11 @@
       <c r="F13" t="n">
         <v>0.8826146788990825</v>
       </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -776,6 +861,11 @@
       <c r="F14" t="n">
         <v>0.9163302752293578</v>
       </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -800,6 +890,11 @@
       <c r="F15" t="n">
         <v>0.9244954128440367</v>
       </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -824,6 +919,11 @@
       <c r="F16" t="n">
         <v>0.125</v>
       </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -848,6 +948,11 @@
       <c r="F17" t="n">
         <v>0.122889906167984</v>
       </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -872,6 +977,11 @@
       <c r="F18" t="n">
         <v>0.125</v>
       </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -896,6 +1006,11 @@
       <c r="F19" t="n">
         <v>0.125</v>
       </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -916,6 +1031,11 @@
       <c r="F20" t="n">
         <v>0.9070642201834862</v>
       </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -936,6 +1056,11 @@
       <c r="F21" t="n">
         <v>0.85</v>
       </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -960,6 +1085,11 @@
       <c r="F22" t="n">
         <v>0.8303669724770643</v>
       </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -984,6 +1114,11 @@
       <c r="F23" t="n">
         <v>0.8209174311926606</v>
       </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1008,6 +1143,11 @@
       <c r="F24" t="n">
         <v>0.8055963302752294</v>
       </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1032,6 +1172,11 @@
       <c r="F25" t="n">
         <v>0.8090366972477064</v>
       </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1056,6 +1201,11 @@
       <c r="F26" t="n">
         <v>0.8027064220183486</v>
       </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1080,6 +1230,11 @@
       <c r="F27" t="n">
         <v>0.9205504587155964</v>
       </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1104,6 +1259,11 @@
       <c r="F28" t="n">
         <v>0.9195412844036698</v>
       </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1128,6 +1288,11 @@
       <c r="F29" t="n">
         <v>0.8811926605504588</v>
       </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1152,6 +1317,11 @@
       <c r="F30" t="n">
         <v>0.8801834862385322</v>
       </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1176,6 +1346,11 @@
       <c r="F31" t="n">
         <v>0.8858715596330275</v>
       </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1200,6 +1375,11 @@
       <c r="F32" t="n">
         <v>0.825045871559633</v>
       </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1224,6 +1404,11 @@
       <c r="F33" t="n">
         <v>0.8287155963302753</v>
       </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1248,6 +1433,11 @@
       <c r="F34" t="n">
         <v>0.8287155963302753</v>
       </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1272,6 +1462,11 @@
       <c r="F35" t="n">
         <v>0.8287155963302753</v>
       </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1296,6 +1491,11 @@
       <c r="F36" t="n">
         <v>0.8844495412844037</v>
       </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1320,6 +1520,11 @@
       <c r="F37" t="n">
         <v>0.8224163055419922</v>
       </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1344,6 +1549,11 @@
       <c r="F38" t="n">
         <v>0.8218565583229065</v>
       </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1368,6 +1578,11 @@
       <c r="F39" t="n">
         <v>0.8220245242118835</v>
       </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1392,6 +1607,11 @@
       <c r="F40" t="n">
         <v>0.8685131072998047</v>
       </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1416,6 +1636,11 @@
       <c r="F41" t="n">
         <v>0.8694465160369873</v>
       </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1440,6 +1665,11 @@
       <c r="F42" t="n">
         <v>0.8963072299957275</v>
       </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1464,6 +1694,11 @@
       <c r="F43" t="n">
         <v>0.8739444017410278</v>
       </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1488,6 +1723,11 @@
       <c r="F44" t="n">
         <v>0.8960378170013428</v>
       </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1512,6 +1752,11 @@
       <c r="F45" t="n">
         <v>0.8897278904914856</v>
       </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1535,6 +1780,116 @@
       </c>
       <c r="F46" t="n">
         <v>0.8970574736595154</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5393967032432556</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.8221645355224609</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5389604568481445</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.8227450251579285</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.7256925702095032</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7613333463668823</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.632562518119812</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.7971321940422058</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5395254492759705</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.822301983833313</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.5391467213630676</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8231043815612793</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.8212844036697248</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1892,6 +1892,2591 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5396572947502136</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.822356104850769</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5391570925712585</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8228999376296997</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.8215137614678899</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5398043394088745</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8224186301231384</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5394845604896545</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8220189809799194</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.8213761467889908</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5396347045898438</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8222575783729553</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.5390360951423645</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.8225362300872803</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.8213761467889908</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5398032665252686</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.8225398063659668</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.5397015810012817</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8224581480026245</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.8205504587155963</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.5392753481864929</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.8228678703308105</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.5388880372047424</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.8223873972892761</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.8211009174311926</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.5390778183937073</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.822685182094574</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.5388949513435364</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.8224100470542908</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.8209174311926606</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.5396257638931274</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.8222215175628662</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.5395103096961975</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.8232629299163818</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.8211926605504587</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.539472758769989</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.8223965167999268</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.5392307639122009</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.8228967189788818</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.8215137614678899</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.5395643711090088</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.8227550983428955</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5389941334724426</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.8225914835929871</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.8211926605504587</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.539743959903717</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.8218057155609131</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.5394448041915894</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.8225347995758057</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.8210091743119267</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5399158596992493</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.8225396275520325</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.5397815108299255</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.8228604197502136</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.8213761467889908</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.5395885705947876</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8228313326835632</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.5391623973846436</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8222468495368958</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.8212385321100918</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.5392218232154846</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.8226901292800903</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.5388458371162415</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.8222993612289429</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.8209633027522936</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5398399829864502</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.8222944140434265</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.5397431254386902</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.8220696449279785</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.8211926605504587</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.53901606798172</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.8227195739746094</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.5389760732650757</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.8229320049285889</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.8217889908256881</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5397728681564331</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.8222951889038086</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.5392924547195435</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.8228745460510254</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.8213761467889908</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.539638340473175</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.8222907185554504</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5393216013908386</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.822150707244873</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.8210091743119267</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.5393034815788269</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.8229352235794067</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5389954447746277</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.8228841423988342</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.8218348623853211</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.5397594571113586</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.8225824236869812</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.5394449234008789</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.8228532671928406</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.8211926605504587</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.5400508642196655</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.8224093317985535</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.5393238067626953</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.8230062127113342</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.8217889908256881</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5396175384521484</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.8226267099380493</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.5393400192260742</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.8226691484451294</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.8213761467889908</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5396240949630737</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.8224007487297058</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5394470691680908</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.8226209282875061</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.8215596330275229</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.5395602583885193</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.8221742510795593</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.5391678214073181</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.8225802183151245</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.8219266055045872</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.5397296547889709</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.8222923874855042</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.5395876169204712</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.8225089311599731</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.821605504587156</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.5398651957511902</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.8226107358932495</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.5395833849906921</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.8217496871948242</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.8209174311926606</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5398373603820801</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.8227818608283997</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.5396543145179749</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.8221754431724548</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.8208715596330275</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.5391818881034851</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.8224367499351501</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.5384981632232666</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.8231120705604553</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.821651376146789</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.5395649075508118</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.8222566843032837</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.5393192768096924</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.8223525285720825</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.8211467889908257</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.7295189499855042</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.7925065159797668</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.7201806306838989</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.7964867949485779</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.7919266055045872</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.7208166122436523</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.793831467628479</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.7134274244308472</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.7939680218696594</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.7911009174311927</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.7241219282150269</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.7901361584663391</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.7156206369400024</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.7945936322212219</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.7896788990825688</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.7224097847938538</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.7921611666679382</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.712837815284729</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.7953323125839233</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.791559633027523</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.721087634563446</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.7922627329826355</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.7113520503044128</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.7953141927719116</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.7910091743119266</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.7196857333183289</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.7926037311553955</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.7100052237510681</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.7942025065422058</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.7911467889908257</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.721538245677948</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.7907217741012573</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.7124555110931396</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.7930952906608582</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.7894495412844037</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.7214670777320862</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.7920708656311035</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.7147691249847412</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.7928805351257324</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.7897706422018349</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.7212712168693542</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.7922502160072327</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.7129219770431519</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.7932296395301819</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.7892660550458716</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.7217673063278198</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.7919203042984009</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.7142729759216309</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.7939224243164062</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.789908256880734</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.7214410901069641</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.7913256287574768</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.7103379964828491</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.7964995503425598</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.7922477064220184</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.7211655378341675</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.7906051874160767</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7129887938499451</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.7928100824356079</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.7890366972477064</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.718445360660553</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.7915171384811401</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.7075539231300354</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.7936810255050659</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.7912844036697247</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.7290465831756592</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.7887847423553467</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.7200084924697876</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.7922621965408325</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.7890366972477064</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.7223321199417114</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.7910808324813843</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.7162950038909912</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.7943477034568787</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.7899541284403669</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.7179787158966064</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.7919647693634033</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.709885835647583</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.792366623878479</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.7894495412844037</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.7205477952957153</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.7911866307258606</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.710946798324585</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.7949318289756775</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.7902293577981652</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.7173683047294617</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.7942965030670166</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.7093971967697144</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.795998215675354</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.7928899082568808</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.7285573482513428</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.7918707132339478</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.7197445631027222</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.7944223880767822</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.7898165137614679</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.7201467752456665</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.7923538088798523</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.7122132182121277</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.7991601228713989</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.793211009174312</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.7177394032478333</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.7921287417411804</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.7098513841629028</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.7958898544311523</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.7910091743119266</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.725559413433075</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.7898440957069397</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.7172327041625977</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.7941328287124634</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.7881192660550459</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.7172704339027405</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.7941066026687622</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.7099999785423279</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.7943399548530579</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.7920183486238532</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.7196882963180542</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.7915721535682678</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.7105390429496765</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.7963408827781677</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.791697247706422</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.7239429950714111</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.7915032505989075</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.7165651917457581</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.7925499081611633</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.788348623853211</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.7191590666770935</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.7926913499832153</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.7106395959854126</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.7968986034393311</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.7912385321100918</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.7240917086601257</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.7904993891716003</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.7151734232902527</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.7917407751083374</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.788348623853211</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4477,6 +4477,1698 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.5397434234619141</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.8226462006568909</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.539154589176178</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.8228570222854614</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.8209174311926606</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.5396329760551453</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.8225621581077576</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.5389643907546997</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.8224648237228394</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.8210091743119267</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.5398100018501282</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.8221192955970764</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.5394654870033264</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.8225088715553284</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.821743119266055</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.5394173264503479</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.822772741317749</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.5392743945121765</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.8219878077507019</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.8211926605504587</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.5391641855239868</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.823111891746521</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.539236843585968</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.8231791853904724</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.821743119266055</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.5395012497901917</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.8222574591636658</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.5395120978355408</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.8227497935295105</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.8214678899082569</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.5396333932876587</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.8223962783813477</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.5391833186149597</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.8227078318595886</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.8210091743119267</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.5395364761352539</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.8224424123764038</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.5393545031547546</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.8220887780189514</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.8215137614678899</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.5396958589553833</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.8218209147453308</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5396068096160889</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.8222312331199646</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.8207339449541284</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.539473295211792</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.8227390050888062</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5390570759773254</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.8217388391494751</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.8207798165137614</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.5395070314407349</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.8226042985916138</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.5392593741416931</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.8228667378425598</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.821605504587156</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.5399628877639771</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.8229691982269287</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.5394667387008667</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.8219890594482422</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.8209633027522936</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.5394976735115051</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.822560727596283</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.5389893651008606</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.8228306770324707</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.8210091743119267</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.5394356846809387</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.8224430084228516</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.5393982529640198</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.8224483728408813</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.8211467889908257</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.5394613146781921</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.8221083283424377</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.5391835570335388</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.8223248720169067</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.8211467889908257</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.539633572101593</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.8222939372062683</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.5394394993782043</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.8221086263656616</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.8215137614678899</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.5395233035087585</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.8220567107200623</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.5388092994689941</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.8219969868659973</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.8211926605504587</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 10, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.5393728613853455</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.8222967386245728</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.5389586091041565</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.822946310043335</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.8214678899082569</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.5394302010536194</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.8228082060813904</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.5391776561737061</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.8231335282325745</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.821743119266055</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.5393889546394348</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.8223578929901123</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.5389901995658875</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.8223170042037964</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.8214220183486238</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5397806167602539</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.8225612640380859</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.5393577218055725</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.8223389983177185</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.8210091743119267</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.5402124524116516</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.8226786255836487</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.53946453332901</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.8224655389785767</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.8212844036697248</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.5396072268486023</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.8223377466201782</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.5390387177467346</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.8220062851905823</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.8211926605504587</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5399624109268188</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.8222057819366455</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.5396503210067749</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.8231897354125977</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.8213302752293578</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.5394523143768311</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.82267165184021</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.5389947295188904</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.8220670223236084</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.8206422018348624</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.5392094254493713</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.8220742344856262</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.5386731624603271</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.8223965764045715</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.8212385321100918</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'adam', 'early_stopping': True, 'patience': 15, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.539218544960022</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.8223569393157959</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.5389329791069031</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.8230676054954529</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.8211926605504587</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.7241664528846741</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.7916212677955627</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.7155690789222717</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.7909789085388184</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.7887614678899083</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.7251255512237549</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.7882720828056335</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.7173135280609131</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.7888908386230469</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.7857339449541284</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.1, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.7238157391548157</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.7916916012763977</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.7161261439323425</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.7908658385276794</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.7892660550458716</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.7258667349815369</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.7919871807098389</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.7183640003204346</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.7926037311553955</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.7889908256880734</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.7227650880813599</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.7926120758056641</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.7143098711967468</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.7947048544883728</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.7908715596330276</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.2, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.722909688949585</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.7893784046173096</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.7141867280006409</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.7922961115837097</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.7894495412844037</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-06}</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.7241341471672058</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.791349470615387</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.7173537015914917</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.7944445013999939</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.790045871559633</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 1e-05}</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.7209547162055969</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.7921634912490845</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.7125564813613892</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.7963618636131287</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.7921100917431193</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>{'learning_rate': 0.001, 'epochs': 10, 'batch_size': 32, 'optimizer_type': 'sgd', 'early_stopping': True, 'patience': 5, 'learning_rate_scheduling': True, 'factor': 0.3, 'min_lr': 0.0001}</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.7218952775001526</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.7935766577720642</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.7155702710151672</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.7971798777580261</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.7922935779816513</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>{"filter_type": "band", "cutoff": [1, 499], "order": 4, "apply_notch": false, "notch_freq": 50, "show_plots": false}</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>{"window_size": 200}</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,6 +937,102 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5175831276192849</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8311467889908257</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5243122222819027</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8279816513761468</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.04421681016234223</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9912538226299694</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.223910852341014</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8671100917431193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 20, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1055087147711188</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9820030581039756</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.259323269919077</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9207339449541284</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>{'time_steps': 8, 'lstm_units': 64, 'epochs': 10, 'batch_size': 90}</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-1133.858032226562</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1191.673706054688</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,6 +1033,290 @@
         <v>0.125</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>{'kernel': 'linear', 'C': 1.0, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>0.6650764525993884</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>0.6705963302752294</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5175831276192849</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8311467889908257</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5243122222819027</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8279816513761468</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.04421681016234223</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9912538226299694</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.223910852341014</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.8671100917431193</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 20, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1055087147711188</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9820030581039756</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.259323269919077</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9207339449541284</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4918838930906179</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8396483180428135</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.4988653574086959</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.836743119266055</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.05247827905299446</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9896330275229358</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.116939824984974</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.8668807339449541</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 20, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1044734740444033</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9813914373088685</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.2575146569135002</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9206422018348623</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.4918838930906179</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8396483180428135</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4988653574086959</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.836743119266055</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.05247827905299446</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9896330275229358</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.116939824984974</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8668807339449541</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2670893313777265</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9013739883305101</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.3644181104316585</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8690005646527386</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2.220446049250314e-16</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5.759657769124876</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.8402032749858837</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 20, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.07634226875628733</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.2441073668322759</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9418407679277244</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,6 +1317,342 @@
         <v>0.9418407679277244</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.2680544554836822</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9038208168642952</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.3621139690309653</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8712591756070017</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2.220446049250314e-16</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5.189797636490611</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.8560135516657256</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.2680544554836822</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9038208168642952</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.3621139690309653</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8712591756070017</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2.220446049250314e-16</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.189797636490611</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8560135516657256</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 20, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.07829993686497456</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.2481032768594374</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9435347261434218</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.2680544554836822</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9038208168642952</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.3621139690309653</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.8712591756070017</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2.220446049250314e-16</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5.189797636490611</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8560135516657256</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 20, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.07829993686497456</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.2481032768594374</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9435347261434218</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.2680544554836822</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9038208168642952</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.3621139690309653</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8712591756070017</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2.220446049250314e-16</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5.189797636490611</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.8560135516657256</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 20, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.07829993686497456</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.2481032768594374</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9435347261434218</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.2680544554836822</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9038208168642952</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.3621139690309653</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8712591756070017</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2.220446049250314e-16</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5.189797636490611</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8560135516657256</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 20, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.07829993686497456</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.2481032768594374</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9435347261434218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1653,6 +1653,270 @@
         <v>0.9435347261434218</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.2680544554836822</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9038208168642952</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.3621139690309653</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.8712591756070017</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2.220446049250314e-16</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5.189797636490611</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8560135516657256</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 20, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.07829993686497456</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.2481032768594374</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.9435347261434218</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.2661613723633287</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.8977978543195935</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.3394174000648679</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.8740824392998306</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2.220446049250314e-16</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.128741193708369</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.857707509881423</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 20, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.07107472561565627</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.227799580037436</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9469226425748165</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.2661613723633287</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.8977978543195935</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.3394174000648679</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.8740824392998306</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2.220446049250314e-16</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5.128741193708369</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.857707509881423</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 20, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.07107472561565627</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.227799580037436</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9469226425748165</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>{'max_iter': 250}</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.2661613723633287</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8977978543195935</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3394174000648679</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8740824392998306</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>{'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2.220446049250314e-16</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.128741193708369</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.857707509881423</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/model_results.xlsx
+++ b/output/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,6 +1917,30 @@
         <v>0.857707509881423</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': 20, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.07107472561565627</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.227799580037436</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9469226425748165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
